--- a/v4/meta.xlsx
+++ b/v4/meta.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="159">
   <si>
     <t>Campbell Scientific</t>
   </si>
@@ -314,24 +314,15 @@
 </t>
   </si>
   <si>
-    <t>CF-1.6, NCAS-AMF-1.0</t>
-  </si>
-  <si>
     <t>National Centre for Atmospheric Science (NCAS)</t>
   </si>
   <si>
-    <t>v1.0</t>
-  </si>
-  <si>
     <t>Data usage licence - UK Government Open Licence agreement: http://www.nationalarchives.gov.uk/doc/open-government-licence</t>
   </si>
   <si>
     <t>Acknowledgement of NCAS as the data provider is required whenever and wherever these data are used</t>
   </si>
   <si>
-    <t>https://github.com/ncasuk/AMF_CVs/releases/tag/0.5.0</t>
-  </si>
-  <si>
     <t>not known</t>
   </si>
   <si>
@@ -344,12 +335,6 @@
     <t>land</t>
   </si>
   <si>
-    <t>Generic</t>
-  </si>
-  <si>
-    <t>v1.8</t>
-  </si>
-  <si>
     <t>G.Forster</t>
   </si>
   <si>
@@ -455,9 +440,6 @@
     <t>Data originally taken 03/2017. Processed and used as part of NCAS data project 10/2018</t>
   </si>
   <si>
-    <t>N\A</t>
-  </si>
-  <si>
     <t>Time series of NO2 concentrations</t>
   </si>
   <si>
@@ -507,6 +489,21 @@
   </si>
   <si>
     <t>Time series profiles of winds and acoustic backscatter</t>
+  </si>
+  <si>
+    <t>https://github.com/barbarabrooks/WAO/tree/master/v4</t>
+  </si>
+  <si>
+    <t>CF-1.6, NCAS-AMF-2.0.0</t>
+  </si>
+  <si>
+    <t>https://github.com/ncasuk/AMF_CVs/releases/tag/v2.0.0</t>
+  </si>
+  <si>
+    <t>Not known</t>
+  </si>
+  <si>
+    <t>Data originally taken 08/2019. Processed and used as part of NCAS data project 10/2019</t>
   </si>
 </sst>
 </file>
@@ -522,19 +519,23 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -545,12 +546,14 @@
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -598,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -626,26 +629,6 @@
       <bottom style="thin">
         <color theme="2"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right style="thin">
-        <color theme="2"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -691,7 +674,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -874,27 +857,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="40">
@@ -1221,10 +1192,10 @@
   <dimension ref="A1:AO910"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomRight" activeCell="AN17" sqref="AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1374,7 +1345,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C2" s="48" t="s">
         <v>31</v>
@@ -1385,102 +1356,104 @@
       <c r="E2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="62">
-        <v>12345</v>
-      </c>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="N2" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="O2" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="Q2" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="O2" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="P2" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q2" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="R2" s="50" t="s">
-        <v>112</v>
-      </c>
       <c r="S2" s="50" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="T2" s="50" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="U2" s="52">
         <v>1</v>
       </c>
       <c r="W2" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="X2" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y2" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA2" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB2" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC2" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD2" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE2" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF2" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG2" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="X2" s="50" t="s">
+      <c r="AJ2" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Y2" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA2" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB2" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC2" s="50" t="s">
+      <c r="AK2" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL2" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE2" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF2" s="64" t="s">
+      <c r="AM2" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN2" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="AG2" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ2" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK2" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL2" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM2" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN2" s="52" t="s">
+      <c r="AO2" s="52" t="s">
         <v>122</v>
-      </c>
-      <c r="AO2" s="52" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -1488,7 +1461,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>47</v>
@@ -1497,104 +1470,106 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="46">
-        <v>12345</v>
-      </c>
-      <c r="G3" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="O3" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L3" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="O3" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="P3" s="60" t="s">
-        <v>111</v>
-      </c>
       <c r="Q3" s="60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R3" s="50" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S3" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="T3" s="50" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="U3" s="52">
         <v>1</v>
       </c>
       <c r="W3" s="50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="X3" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y3" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA3" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB3" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC3" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD3" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE3" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF3" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG3" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ3" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Y3" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA3" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB3" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC3" s="50" t="s">
+      <c r="AK3" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL3" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="AD3" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE3" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF3" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG3" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ3" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK3" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL3" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM3" s="43" t="s">
-        <v>100</v>
+      <c r="AM3" s="62" t="s">
+        <v>156</v>
       </c>
       <c r="AN3" s="44" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AO3" s="50" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1602,7 +1577,7 @@
         <v>39</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>40</v>
@@ -1616,99 +1591,101 @@
       <c r="F4" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="O4" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L4" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="O4" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="P4" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q4" s="60" t="s">
-        <v>111</v>
-      </c>
       <c r="R4" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="S4" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="T4" s="50" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="U4" s="52">
         <v>1</v>
       </c>
       <c r="W4" s="50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="X4" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y4" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA4" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB4" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC4" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD4" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE4" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF4" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG4" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ4" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Y4" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA4" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB4" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC4" s="50" t="s">
+      <c r="AK4" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL4" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="AD4" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE4" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF4" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG4" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ4" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK4" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL4" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM4" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN4" s="67" t="s">
-        <v>132</v>
+      <c r="AM4" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN4" s="64" t="s">
+        <v>127</v>
       </c>
       <c r="AO4" s="52" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1716,7 +1693,7 @@
         <v>52</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>53</v>
@@ -1727,102 +1704,104 @@
       <c r="E5" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="46">
-        <v>12345</v>
-      </c>
-      <c r="G5" s="47" t="s">
+      <c r="F5" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="N5" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="O5" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="J5" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" t="s">
-        <v>109</v>
-      </c>
-      <c r="L5" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="O5" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="P5" s="60" t="s">
-        <v>111</v>
-      </c>
       <c r="Q5" s="60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R5" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="S5" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="T5" s="50" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="U5" s="52">
         <v>1</v>
       </c>
       <c r="W5" s="50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="X5" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y5" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA5" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB5" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC5" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD5" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE5" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF5" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG5" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ5" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Y5" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA5" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB5" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC5" s="50" t="s">
+      <c r="AK5" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL5" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="AD5" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE5" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF5" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG5" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ5" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK5" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL5" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM5" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN5" s="67" t="s">
-        <v>141</v>
+      <c r="AM5" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN5" s="64" t="s">
+        <v>136</v>
       </c>
       <c r="AO5" s="50" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1830,7 +1809,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>35</v>
@@ -1841,102 +1820,104 @@
       <c r="E6" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="46">
-        <v>12345</v>
-      </c>
-      <c r="G6" s="47" t="s">
+      <c r="F6" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="N6" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="O6" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L6" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="O6" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="P6" s="60" t="s">
-        <v>111</v>
-      </c>
       <c r="Q6" s="60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R6" s="50" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S6" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="T6" s="50" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="U6" s="52">
         <v>1</v>
       </c>
       <c r="W6" s="50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="X6" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y6" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA6" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB6" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC6" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD6" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE6" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF6" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG6" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ6" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Y6" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA6" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB6" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC6" s="50" t="s">
+      <c r="AK6" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL6" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="AD6" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE6" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF6" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG6" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ6" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK6" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL6" s="50" t="s">
+      <c r="AM6" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN6" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="AM6" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN6" s="44" t="s">
-        <v>126</v>
-      </c>
       <c r="AO6" s="52" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1944,7 +1925,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>51</v>
@@ -1955,102 +1936,104 @@
       <c r="E7" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="46">
-        <v>12345</v>
-      </c>
-      <c r="G7" s="47" t="s">
+      <c r="F7" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="N7" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="O7" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="J7" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="O7" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="P7" s="60" t="s">
-        <v>111</v>
-      </c>
       <c r="Q7" s="60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R7" s="50" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="S7" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="T7" s="50" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="U7" s="52">
         <v>1</v>
       </c>
       <c r="W7" s="50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="X7" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y7" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA7" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB7" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC7" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD7" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE7" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF7" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG7" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ7" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Y7" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA7" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB7" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC7" s="50" t="s">
+      <c r="AK7" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL7" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="AD7" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE7" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF7" s="64" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG7" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ7" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK7" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL7" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM7" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN7" s="67" t="s">
-        <v>136</v>
+      <c r="AM7" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN7" s="64" t="s">
+        <v>131</v>
       </c>
       <c r="AO7" s="50" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -2058,7 +2041,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>44</v>
@@ -2069,102 +2052,104 @@
       <c r="E8" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="46">
-        <v>12345</v>
-      </c>
-      <c r="G8" s="47" t="s">
+      <c r="F8" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="N8" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="O8" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="J8" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" t="s">
-        <v>109</v>
-      </c>
-      <c r="L8" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="O8" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" s="60" t="s">
-        <v>111</v>
-      </c>
       <c r="Q8" s="60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R8" s="50" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="S8" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="T8" s="50" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="U8" s="52">
         <v>1</v>
       </c>
       <c r="W8" s="50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="X8" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA8" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB8" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC8" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD8" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE8" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF8" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG8" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ8" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Y8" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA8" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB8" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC8" s="50" t="s">
+      <c r="AK8" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL8" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="AD8" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE8" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF8" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG8" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ8" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK8" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL8" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM8" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN8" s="67" t="s">
-        <v>139</v>
+      <c r="AM8" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN8" s="64" t="s">
+        <v>134</v>
       </c>
       <c r="AO8" s="50" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -2172,10 +2157,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>11</v>
@@ -2183,102 +2168,104 @@
       <c r="E9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="46">
-        <v>12345</v>
-      </c>
-      <c r="G9" s="47" t="s">
+      <c r="F9" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="N9" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="O9" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" s="59"/>
-      <c r="N9" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="O9" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="P9" s="60" t="s">
-        <v>111</v>
-      </c>
       <c r="Q9" s="60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R9" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="S9" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="T9" s="50" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="U9" s="52">
         <v>1</v>
       </c>
       <c r="W9" s="50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="X9" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA9" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB9" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC9" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD9" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE9" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF9" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG9" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ9" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Y9" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA9" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB9" s="44" t="s">
+      <c r="AK9" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="AC9" s="50" t="s">
+      <c r="AL9" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="AD9" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE9" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF9" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG9" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ9" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK9" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL9" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM9" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN9" s="67" t="s">
-        <v>144</v>
+      <c r="AM9" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN9" s="64" t="s">
+        <v>138</v>
       </c>
       <c r="AO9" s="50" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -2286,10 +2273,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D10" s="54" t="s">
         <v>11</v>
@@ -2297,102 +2284,104 @@
       <c r="E10" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="46">
-        <v>12345</v>
-      </c>
-      <c r="G10" s="47" t="s">
+      <c r="F10" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="N10" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="O10" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" s="59"/>
-      <c r="N10" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="O10" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="P10" s="60" t="s">
-        <v>111</v>
-      </c>
       <c r="Q10" s="60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R10" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="S10" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="T10" s="50" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="U10" s="52">
         <v>1</v>
       </c>
       <c r="W10" s="50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="X10" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y10" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA10" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB10" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC10" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD10" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE10" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF10" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG10" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ10" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Y10" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA10" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB10" s="44" t="s">
+      <c r="AK10" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="AC10" s="50" t="s">
+      <c r="AL10" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="AD10" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE10" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF10" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG10" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ10" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK10" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL10" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM10" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN10" s="67" t="s">
-        <v>144</v>
+      <c r="AM10" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN10" s="64" t="s">
+        <v>138</v>
       </c>
       <c r="AO10" s="50" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -2400,10 +2389,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D11" s="54" t="s">
         <v>11</v>
@@ -2411,102 +2400,104 @@
       <c r="E11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="46">
-        <v>12345</v>
-      </c>
-      <c r="G11" s="47" t="s">
+      <c r="F11" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="N11" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="69" t="s">
+      <c r="O11" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="J11" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" s="59"/>
-      <c r="N11" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="O11" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="P11" s="60" t="s">
-        <v>111</v>
-      </c>
       <c r="Q11" s="60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R11" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="S11" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="T11" s="50" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="U11" s="52">
         <v>1</v>
       </c>
       <c r="W11" s="50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="X11" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y11" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA11" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB11" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC11" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD11" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE11" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF11" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG11" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ11" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Y11" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA11" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB11" s="44" t="s">
+      <c r="AK11" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="AC11" s="50" t="s">
+      <c r="AL11" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="AD11" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE11" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF11" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG11" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ11" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK11" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL11" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM11" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN11" s="67" t="s">
-        <v>144</v>
+      <c r="AM11" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN11" s="64" t="s">
+        <v>138</v>
       </c>
       <c r="AO11" s="50" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -2514,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>3</v>
@@ -2523,104 +2514,106 @@
         <v>0</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="46">
-        <v>12345</v>
-      </c>
-      <c r="G12" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="N12" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="69" t="s">
+      <c r="O12" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="J12" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K12" t="s">
-        <v>109</v>
-      </c>
-      <c r="L12" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="M12" s="59"/>
-      <c r="N12" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="O12" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="P12" s="60" t="s">
-        <v>111</v>
-      </c>
       <c r="Q12" s="60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R12" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="S12" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="T12" s="50" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="U12" s="52">
         <v>1</v>
       </c>
       <c r="W12" s="50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="X12" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y12" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA12" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB12" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC12" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD12" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE12" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF12" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG12" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ12" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Y12" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA12" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB12" s="44" t="s">
+      <c r="AK12" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="AC12" s="50" t="s">
+      <c r="AL12" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="AD12" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE12" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF12" s="64" t="s">
+      <c r="AM12" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="AG12" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ12" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK12" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL12" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM12" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN12" s="67" t="s">
-        <v>152</v>
+      <c r="AN12" s="64" t="s">
+        <v>146</v>
       </c>
       <c r="AO12" s="50" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2628,7 +2621,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>6</v>
@@ -2639,102 +2632,104 @@
       <c r="E13" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="46">
-        <v>12345</v>
-      </c>
-      <c r="G13" s="47" t="s">
+      <c r="F13" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="N13" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="O13" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="J13" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K13" t="s">
-        <v>109</v>
-      </c>
-      <c r="L13" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" s="59"/>
-      <c r="N13" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="O13" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="P13" s="60" t="s">
-        <v>111</v>
-      </c>
       <c r="Q13" s="60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R13" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="S13" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="T13" s="50" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="U13" s="52">
         <v>1</v>
       </c>
       <c r="W13" s="50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="X13" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y13" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA13" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB13" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC13" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD13" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE13" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF13" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG13" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ13" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Y13" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA13" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB13" s="44" t="s">
+      <c r="AK13" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="AC13" s="50" t="s">
+      <c r="AL13" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="AD13" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE13" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF13" s="64" t="s">
+      <c r="AM13" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="AG13" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ13" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK13" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL13" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM13" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN13" s="67" t="s">
-        <v>152</v>
+      <c r="AN13" s="64" t="s">
+        <v>146</v>
       </c>
       <c r="AO13" s="50" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -2742,7 +2737,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>10</v>
@@ -2756,99 +2751,101 @@
       <c r="F14" s="47">
         <v>187</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="N14" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14" t="s">
-        <v>109</v>
-      </c>
-      <c r="L14" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="O14" s="64" t="s">
-        <v>101</v>
+      <c r="O14" s="63" t="s">
+        <v>98</v>
       </c>
       <c r="P14" s="60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R14" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="S14" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="T14" s="50" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="U14" s="52">
         <v>1</v>
       </c>
       <c r="W14" s="50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="X14" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y14" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA14" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB14" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC14" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD14" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE14" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF14" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG14" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ14" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Y14" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA14" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB14" s="44" t="s">
+      <c r="AK14" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="AC14" s="50" t="s">
+      <c r="AL14" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="AD14" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE14" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF14" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG14" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ14" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK14" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL14" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM14" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN14" s="67" t="s">
-        <v>144</v>
+      <c r="AM14" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN14" s="64" t="s">
+        <v>138</v>
       </c>
       <c r="AO14" s="50" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -2856,7 +2853,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C15" s="48" t="s">
         <v>20</v>
@@ -2870,99 +2867,101 @@
       <c r="F15" s="47">
         <v>9342</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="N15" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="I15" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K15" t="s">
-        <v>109</v>
-      </c>
-      <c r="L15" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="M15" s="59"/>
-      <c r="N15" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="O15" s="64" t="s">
-        <v>101</v>
+      <c r="O15" s="63" t="s">
+        <v>98</v>
       </c>
       <c r="P15" s="60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R15" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="S15" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="T15" s="50" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="U15" s="52">
         <v>1</v>
       </c>
       <c r="W15" s="50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="X15" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y15" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA15" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB15" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC15" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD15" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE15" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF15" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG15" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ15" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Y15" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA15" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB15" s="44" t="s">
+      <c r="AK15" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="AC15" s="50" t="s">
+      <c r="AL15" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="AD15" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE15" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF15" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG15" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ15" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK15" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL15" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM15" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN15" s="67" t="s">
-        <v>152</v>
+      <c r="AM15" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN15" s="64" t="s">
+        <v>146</v>
       </c>
       <c r="AO15" s="50" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2970,7 +2969,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C16" s="48" t="s">
         <v>23</v>
@@ -2979,104 +2978,106 @@
         <v>21</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="46">
-        <v>12345</v>
-      </c>
-      <c r="G16" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="N16" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="69" t="s">
+      <c r="O16" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="J16" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K16" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" s="59"/>
-      <c r="N16" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="O16" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="P16" s="60" t="s">
-        <v>111</v>
-      </c>
       <c r="Q16" s="60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R16" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="S16" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="T16" s="50" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="U16" s="52">
         <v>1</v>
       </c>
       <c r="W16" s="50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="X16" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y16" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA16" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB16" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC16" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD16" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE16" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF16" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG16" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ16" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Y16" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA16" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB16" s="44" t="s">
+      <c r="AK16" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="AC16" s="50" t="s">
+      <c r="AL16" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="AD16" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE16" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF16" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG16" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ16" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK16" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL16" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM16" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN16" s="67" t="s">
-        <v>152</v>
+      <c r="AM16" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN16" s="64" t="s">
+        <v>146</v>
       </c>
       <c r="AO16" s="50" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -3084,10 +3085,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>14</v>
@@ -3095,102 +3096,104 @@
       <c r="E17" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="46">
-        <v>12345</v>
-      </c>
-      <c r="G17" s="47" t="s">
+      <c r="F17" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="N17" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="69" t="s">
+      <c r="O17" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K17" t="s">
-        <v>109</v>
-      </c>
-      <c r="L17" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="M17" s="59"/>
-      <c r="N17" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="O17" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="P17" s="60" t="s">
-        <v>111</v>
-      </c>
       <c r="Q17" s="60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R17" s="50" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="S17" s="50" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="T17" s="50" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="U17" s="52">
         <v>1</v>
       </c>
       <c r="W17" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="X17" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y17" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA17" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB17" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC17" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD17" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE17" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF17" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG17" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="X17" s="50" t="s">
+      <c r="AJ17" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Y17" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA17" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB17" s="44" t="s">
+      <c r="AK17" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="AC17" s="50" t="s">
+      <c r="AL17" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="AD17" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE17" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF17" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG17" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ17" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK17" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL17" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM17" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN17" s="67" t="s">
-        <v>152</v>
+      <c r="AM17" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN17" s="65" t="s">
+        <v>158</v>
       </c>
       <c r="AO17" s="50" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -11259,24 +11262,10 @@
     <hyperlink ref="AA16" r:id="rId14"/>
     <hyperlink ref="AA10" r:id="rId15"/>
     <hyperlink ref="AA17" r:id="rId16"/>
-    <hyperlink ref="AM2" r:id="rId17"/>
-    <hyperlink ref="AM6" r:id="rId18"/>
-    <hyperlink ref="AM4" r:id="rId19"/>
-    <hyperlink ref="AM8" r:id="rId20"/>
-    <hyperlink ref="AM3" r:id="rId21"/>
-    <hyperlink ref="AM7" r:id="rId22"/>
-    <hyperlink ref="AM5" r:id="rId23"/>
-    <hyperlink ref="AM12" r:id="rId24"/>
-    <hyperlink ref="AM13" r:id="rId25"/>
-    <hyperlink ref="AM14" r:id="rId26"/>
-    <hyperlink ref="AM9" r:id="rId27"/>
-    <hyperlink ref="AM11" r:id="rId28"/>
-    <hyperlink ref="AM15" r:id="rId29"/>
-    <hyperlink ref="AM16" r:id="rId30"/>
-    <hyperlink ref="AM10" r:id="rId31"/>
-    <hyperlink ref="AM17" r:id="rId32"/>
+    <hyperlink ref="M2" r:id="rId17"/>
+    <hyperlink ref="M3:M17" r:id="rId18" display="https://github.com/barbarabrooks/WAO/tree/master/v4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>